--- a/Data/Excel/FCFS/3.xlsx
+++ b/Data/Excel/FCFS/3.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.1</v>
+        <v>56.74</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.56</v>
+        <v>56.21</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.03</v>
+        <v>55.67</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.5</v>
+        <v>55.14</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.96</v>
+        <v>54.61</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.43</v>
+        <v>54.07</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9</v>
+        <v>53.54</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.36</v>
+        <v>53.01</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.83</v>
+        <v>52.47</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3</v>
+        <v>51.94</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.76</v>
+        <v>51.41</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.23</v>
+        <v>50.87</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.7</v>
+        <v>50.34</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.16</v>
+        <v>49.81</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.63</v>
+        <v>49.27</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1</v>
+        <v>48.74</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.56</v>
+        <v>48.21</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.03</v>
+        <v>47.67</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.5</v>
+        <v>47.14</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.96</v>
+        <v>46.61</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.43</v>
+        <v>46.07</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.9</v>
+        <v>45.54</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.36</v>
+        <v>45.01</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.83</v>
+        <v>44.47</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.3</v>
+        <v>43.94</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.76</v>
+        <v>43.41</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.23</v>
+        <v>42.87</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7</v>
+        <v>42.34</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.16</v>
+        <v>41.81</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.63</v>
+        <v>41.27</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.1</v>
+        <v>40.74</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.56</v>
+        <v>40.21</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.03</v>
+        <v>39.67</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.5</v>
+        <v>39.14</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.96</v>
+        <v>38.61</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.43</v>
+        <v>38.07</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.9</v>
+        <v>37.54</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.36</v>
+        <v>37.01</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.83</v>
+        <v>36.47</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.3</v>
+        <v>35.94</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.76</v>
+        <v>35.41</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.23</v>
+        <v>34.87</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.7</v>
+        <v>34.34</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.16</v>
+        <v>33.81</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.63</v>
+        <v>33.27</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.1</v>
+        <v>32.74</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.56</v>
+        <v>32.21</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.03</v>
+        <v>31.67</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.5</v>
+        <v>31.14</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.96</v>
+        <v>30.61</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.43</v>
+        <v>30.07</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.9</v>
+        <v>29.54</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.36</v>
+        <v>29.01</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.83</v>
+        <v>28.47</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.3</v>
+        <v>27.94</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.76</v>
+        <v>27.41</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.23</v>
+        <v>26.87</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.7</v>
+        <v>26.34</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.16</v>
+        <v>25.81</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.63</v>
+        <v>25.27</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.1</v>
+        <v>24.74</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.56</v>
+        <v>24.21</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.03</v>
+        <v>23.67</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.5</v>
+        <v>23.14</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.96</v>
+        <v>22.61</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.43</v>
+        <v>22.07</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.9</v>
+        <v>21.54</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.36</v>
+        <v>21.01</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.83</v>
+        <v>20.47</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.3</v>
+        <v>19.94</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.76</v>
+        <v>19.41</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.23</v>
+        <v>18.87</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>18.34</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.16</v>
+        <v>17.81</v>
       </c>
       <c r="C75" t="n">
         <v>-2</v>
@@ -1941,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.63</v>
+        <v>17.27</v>
       </c>
       <c r="C76" t="n">
         <v>-2</v>
@@ -1961,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.1</v>
+        <v>16.74</v>
       </c>
       <c r="C77" t="n">
         <v>-2</v>
@@ -1981,7 +1981,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.56</v>
+        <v>16.21</v>
       </c>
       <c r="C78" t="n">
         <v>-2</v>
@@ -2001,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.03</v>
+        <v>15.67</v>
       </c>
       <c r="C79" t="n">
         <v>-2</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.5</v>
+        <v>15.14</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.05</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.97</v>
+        <v>14.61</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.43</v>
+        <v>14.07</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.05</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.9</v>
+        <v>13.54</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.01</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.37</v>
+        <v>13.01</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.96</v>
+        <v>-2</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.84</v>
+        <v>12.48</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.88</v>
+        <v>-2.05</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.32</v>
+        <v>11.94</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.78</v>
+        <v>-2.06</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.800000000000001</v>
+        <v>11.41</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.66</v>
+        <v>-2.05</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.279999999999999</v>
+        <v>10.88</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.53</v>
+        <v>-2.01</v>
       </c>
       <c r="D88" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2201,18 +2201,558 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.8</v>
+        <v>10.35</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.38</v>
+        <v>-1.95</v>
       </c>
       <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="D95" t="n">
         <v>7.2</v>
       </c>
-      <c r="E89" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F89" t="b">
+      <c r="E95" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>59.92</v>
+        <v>47.81</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2295,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.26</v>
+        <v>47.15</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2315,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.61</v>
+        <v>46.5</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2335,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.96</v>
+        <v>45.85</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2355,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.32</v>
+        <v>45.21</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2375,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.69</v>
+        <v>44.58</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2395,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.05</v>
+        <v>43.94</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2415,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.42</v>
+        <v>43.31</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2435,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.8</v>
+        <v>42.69</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2455,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.18</v>
+        <v>42.07</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2475,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.55</v>
+        <v>41.44</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2495,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.94</v>
+        <v>40.83</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2515,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.32</v>
+        <v>40.21</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2535,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.71</v>
+        <v>39.6</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2555,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.09</v>
+        <v>38.98</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2575,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.48</v>
+        <v>38.37</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2595,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>49.87</v>
+        <v>37.76</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2615,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.26</v>
+        <v>37.15</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2635,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.65</v>
+        <v>36.54</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2655,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.05</v>
+        <v>35.94</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2675,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.44</v>
+        <v>35.33</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2695,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.84</v>
+        <v>34.73</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2715,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.23</v>
+        <v>34.12</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2735,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.63</v>
+        <v>33.52</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2755,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.02</v>
+        <v>32.91</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.42</v>
+        <v>32.31</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2795,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.82</v>
+        <v>31.71</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.21</v>
+        <v>31.1</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2835,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.61</v>
+        <v>30.5</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.01</v>
+        <v>29.9</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.41</v>
+        <v>29.3</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2895,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.8</v>
+        <v>28.69</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2915,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.2</v>
+        <v>28.09</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2935,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>27.49</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2955,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>26.89</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2975,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.4</v>
+        <v>26.29</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2995,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.8</v>
+        <v>25.69</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -3015,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2</v>
+        <v>25.09</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3035,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.6</v>
+        <v>24.49</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -3055,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>23.89</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -3075,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>35.4</v>
+        <v>23.29</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -3095,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>34.79</v>
+        <v>22.68</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -3115,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>34.19</v>
+        <v>22.08</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -3135,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.59</v>
+        <v>21.48</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -3155,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>32.99</v>
+        <v>20.88</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -3175,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>32.39</v>
+        <v>20.28</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3195,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>31.79</v>
+        <v>19.68</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -3215,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>31.19</v>
+        <v>19.08</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -3235,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>30.59</v>
+        <v>18.48</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -3255,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>29.99</v>
+        <v>17.88</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -3275,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>29.39</v>
+        <v>17.28</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3295,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>28.79</v>
+        <v>16.72</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3315,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>28.19</v>
+        <v>16.18</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3335,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.59</v>
+        <v>15.67</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3355,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>26.99</v>
+        <v>15.18</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3375,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.39</v>
+        <v>14.71</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3395,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>25.79</v>
+        <v>14.26</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3415,10 +3955,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>25.19</v>
+        <v>13.87</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3435,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>24.59</v>
+        <v>13.51</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3455,10 +3995,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>23.99</v>
+        <v>13.2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3472,16 +4012,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="C62" t="n">
-        <v>23.39</v>
+        <v>12.92</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.57</v>
+        <v>-1.55</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3492,16 +4032,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="C63" t="n">
-        <v>22.79</v>
+        <v>12.67</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.57</v>
+        <v>-1.55</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3512,16 +4052,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="C64" t="n">
-        <v>22.19</v>
+        <v>12.45</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.57</v>
+        <v>-1.55</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3532,16 +4072,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="C65" t="n">
-        <v>21.59</v>
+        <v>12.26</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.57</v>
+        <v>-1.55</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3552,16 +4092,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="C66" t="n">
-        <v>20.99</v>
+        <v>12.08</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.57</v>
+        <v>-1.56</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3572,16 +4112,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="C67" t="n">
-        <v>20.39</v>
+        <v>11.93</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.57</v>
+        <v>-1.56</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3592,13 +4132,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="C68" t="n">
-        <v>19.79</v>
+        <v>11.79</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3612,13 +4152,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="C69" t="n">
-        <v>19.19</v>
+        <v>11.67</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3632,13 +4172,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C70" t="n">
-        <v>18.59</v>
+        <v>11.56</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3652,13 +4192,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C71" t="n">
-        <v>17.99</v>
+        <v>11.46</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3672,13 +4212,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="C72" t="n">
-        <v>17.39</v>
+        <v>11.38</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3692,16 +4232,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="C73" t="n">
-        <v>16.79</v>
+        <v>11.3</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3712,16 +4252,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="C74" t="n">
-        <v>16.19</v>
+        <v>11.23</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3732,16 +4272,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="C75" t="n">
-        <v>15.59</v>
+        <v>11.17</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3755,13 +4295,13 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>14.99</v>
+        <v>11.12</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3775,13 +4315,13 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.39</v>
+        <v>11.07</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3795,13 +4335,13 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>13.79</v>
+        <v>11.03</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3815,13 +4355,13 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>13.19</v>
+        <v>10.99</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3832,16 +4372,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.59</v>
+        <v>10.96</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.95</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.55</v>
+        <v>-1.58</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3852,16 +4392,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11.99</v>
+        <v>10.89</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>1.34</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.55</v>
+        <v>-1.58</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3872,16 +4412,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="C82" t="n">
-        <v>11.39</v>
+        <v>10.8</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>1.69</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.56</v>
+        <v>-1.58</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3892,13 +4432,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D83" t="n">
         <v>2.01</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
       </c>
       <c r="E83" t="n">
         <v>-1.58</v>
@@ -3912,16 +4452,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="C84" t="n">
-        <v>10.2</v>
+        <v>10.56</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>2.28</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.61</v>
+        <v>-1.59</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3932,16 +4472,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="C85" t="n">
-        <v>9.609999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>3.03</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.64</v>
+        <v>-1.59</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3952,16 +4492,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="C86" t="n">
-        <v>9.02</v>
+        <v>10.21</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>3.69</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.67</v>
+        <v>-1.6</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3972,16 +4512,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="C87" t="n">
-        <v>8.44</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>4.28</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.7</v>
+        <v>-1.61</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3992,16 +4532,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="C88" t="n">
-        <v>7.86</v>
+        <v>9.68</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>4.81</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.74</v>
+        <v>-1.63</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4012,18 +4552,558 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="C89" t="n">
-        <v>7.29</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>5.27</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.78</v>
+        <v>-1.65</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-5.85</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +5118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4083,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.17</v>
+        <v>-59.78</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4103,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.51</v>
+        <v>-59.13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4123,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.86</v>
+        <v>-58.47</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4143,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-58.21</v>
+        <v>-57.83</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4163,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.57</v>
+        <v>-57.18</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4183,7 +5263,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-56.93</v>
+        <v>-56.55</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4203,7 +5283,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-56.3</v>
+        <v>-55.91</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4223,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.67</v>
+        <v>-55.28</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4243,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.04</v>
+        <v>-54.66</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4263,7 +5343,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-54.42</v>
+        <v>-54.04</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4283,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-53.8</v>
+        <v>-53.42</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4303,7 +5383,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-53.18</v>
+        <v>-52.8</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4323,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-52.56</v>
+        <v>-52.18</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4343,7 +5423,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.95</v>
+        <v>-51.57</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4363,7 +5443,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.34</v>
+        <v>-50.95</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4383,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.73</v>
+        <v>-50.34</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4403,7 +5483,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.12</v>
+        <v>-49.73</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4423,7 +5503,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.51</v>
+        <v>-49.12</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4443,7 +5523,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.9</v>
+        <v>-48.52</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4463,7 +5543,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.29</v>
+        <v>-47.91</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4483,7 +5563,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.69</v>
+        <v>-47.3</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4503,7 +5583,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.08</v>
+        <v>-46.7</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4523,7 +5603,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-46.47</v>
+        <v>-46.09</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4543,7 +5623,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.87</v>
+        <v>-45.49</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4563,7 +5643,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-45.27</v>
+        <v>-44.88</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4583,7 +5663,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-44.66</v>
+        <v>-44.28</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4603,7 +5683,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-44.06</v>
+        <v>-43.68</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4623,7 +5703,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.46</v>
+        <v>-43.07</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4643,7 +5723,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.85</v>
+        <v>-42.47</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4663,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25</v>
+        <v>-41.87</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4683,7 +5763,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-41.65</v>
+        <v>-41.27</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4703,7 +5783,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-41.05</v>
+        <v>-40.66</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4723,7 +5803,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-40.45</v>
+        <v>-40.06</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4743,7 +5823,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.85</v>
+        <v>-39.46</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4763,7 +5843,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-39.24</v>
+        <v>-38.86</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4783,7 +5863,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-38.64</v>
+        <v>-38.26</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4803,7 +5883,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-38.04</v>
+        <v>-37.66</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4823,7 +5903,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-37.44</v>
+        <v>-37.06</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4843,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.84</v>
+        <v>-36.46</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4863,7 +5943,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-36.24</v>
+        <v>-35.86</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4883,7 +5963,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.64</v>
+        <v>-35.26</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4903,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35.04</v>
+        <v>-34.66</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4923,7 +6003,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.44</v>
+        <v>-34.05</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4943,7 +6023,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.84</v>
+        <v>-33.45</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4963,7 +6043,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-33.24</v>
+        <v>-32.85</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4983,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-32.64</v>
+        <v>-32.25</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -5003,7 +6083,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-32.04</v>
+        <v>-31.65</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -5023,7 +6103,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-31.44</v>
+        <v>-31.05</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -5043,7 +6123,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.84</v>
+        <v>-30.45</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -5063,7 +6143,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-30.24</v>
+        <v>-29.85</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -5083,7 +6163,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-29.64</v>
+        <v>-29.25</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -5103,7 +6183,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-29.04</v>
+        <v>-28.65</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -5123,7 +6203,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-28.44</v>
+        <v>-28.05</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -5143,7 +6223,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.84</v>
+        <v>-27.45</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -5163,7 +6243,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.24</v>
+        <v>-26.85</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -5183,7 +6263,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-26.64</v>
+        <v>-26.25</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -5203,7 +6283,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.04</v>
+        <v>-25.65</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
@@ -5223,13 +6303,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.44</v>
+        <v>-25.05</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5243,13 +6323,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.84</v>
+        <v>-24.48</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5263,13 +6343,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.24</v>
+        <v>-23.95</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5283,13 +6363,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-23.64</v>
+        <v>-23.44</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5303,13 +6383,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-23.04</v>
+        <v>-22.95</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5323,13 +6403,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-22.44</v>
+        <v>-22.48</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5343,13 +6423,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-21.84</v>
+        <v>-22.04</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5363,13 +6443,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-21.24</v>
+        <v>-21.64</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5383,13 +6463,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-20.63</v>
+        <v>-21.28</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -5403,13 +6483,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-20.03</v>
+        <v>-20.97</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -5423,13 +6503,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-19.43</v>
+        <v>-20.69</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -5443,13 +6523,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-18.83</v>
+        <v>-20.44</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>3.31</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5463,13 +6543,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-18.23</v>
+        <v>-20.22</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -5483,13 +6563,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-17.63</v>
+        <v>-20.02</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
@@ -5503,13 +6583,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-17.03</v>
+        <v>-19.85</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
@@ -5523,13 +6603,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.43</v>
+        <v>-19.69</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E74" t="n">
         <v>-0</v>
@@ -5543,13 +6623,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-15.83</v>
+        <v>-19.55</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -5563,13 +6643,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-15.23</v>
+        <v>-19.43</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E76" t="n">
         <v>-0</v>
@@ -5583,13 +6663,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-14.63</v>
+        <v>-19.32</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E77" t="n">
         <v>-0</v>
@@ -5603,13 +6683,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-14.03</v>
+        <v>-19.23</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E78" t="n">
         <v>-0</v>
@@ -5623,13 +6703,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-13.43</v>
+        <v>-19.14</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E79" t="n">
         <v>-0</v>
@@ -5643,16 +6723,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.84</v>
+        <v>-19.06</v>
       </c>
       <c r="C80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5663,16 +6743,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.24</v>
+        <v>-19</v>
       </c>
       <c r="C81" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5683,16 +6763,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.64</v>
+        <v>-18.93</v>
       </c>
       <c r="C82" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5703,13 +6783,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-11.04</v>
+        <v>-18.88</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E83" t="n">
         <v>-0</v>
@@ -5723,16 +6803,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-10.44</v>
+        <v>-18.83</v>
       </c>
       <c r="C84" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5743,16 +6823,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.85</v>
+        <v>-18.79</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5763,16 +6843,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-9.26</v>
+        <v>-18.75</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.09</v>
+        <v>-0</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5783,16 +6863,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-8.67</v>
+        <v>-18.72</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5803,16 +6883,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-8.1</v>
+        <v>-18.69</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.15</v>
+        <v>-0</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -5823,18 +6903,558 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-7.52</v>
+        <v>-18.66</v>
       </c>
       <c r="C89" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.85</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-18.52</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-18.41</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-18.29</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-18.14</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-17.97</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-17.76</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-17.21</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-16.88</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-16.52</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-16.13</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-15.73</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-11.86</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-10.24</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +7469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5897,7 +7517,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-52.2</v>
+        <v>-55.15</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5917,7 +7537,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.54</v>
+        <v>-54.49</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5937,7 +7557,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.89</v>
+        <v>-53.84</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5957,7 +7577,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.24</v>
+        <v>-53.19</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5977,7 +7597,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.6</v>
+        <v>-52.55</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5997,7 +7617,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-48.96</v>
+        <v>-51.91</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -6017,7 +7637,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-48.33</v>
+        <v>-51.28</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -6037,7 +7657,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.7</v>
+        <v>-50.65</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -6057,7 +7677,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-47.08</v>
+        <v>-50.03</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6077,7 +7697,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-46.45</v>
+        <v>-49.4</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6097,7 +7717,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-45.83</v>
+        <v>-48.78</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6117,7 +7737,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-45.21</v>
+        <v>-48.16</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6137,7 +7757,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-44.6</v>
+        <v>-47.55</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6157,7 +7777,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-43.98</v>
+        <v>-46.93</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6177,7 +7797,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-43.37</v>
+        <v>-46.32</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6197,7 +7817,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-42.76</v>
+        <v>-45.71</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6217,7 +7837,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.15</v>
+        <v>-45.1</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6237,7 +7857,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-41.54</v>
+        <v>-44.49</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6257,7 +7877,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-40.93</v>
+        <v>-43.88</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6277,7 +7897,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-40.32</v>
+        <v>-43.27</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6297,7 +7917,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-39.72</v>
+        <v>-42.67</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6317,7 +7937,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-39.11</v>
+        <v>-42.06</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6337,7 +7957,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-38.51</v>
+        <v>-41.46</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6357,7 +7977,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-37.9</v>
+        <v>-40.85</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6377,7 +7997,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-37.3</v>
+        <v>-40.25</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6397,7 +8017,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-36.7</v>
+        <v>-39.65</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6417,7 +8037,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-36.09</v>
+        <v>-39.04</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6437,7 +8057,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-35.49</v>
+        <v>-38.44</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6457,7 +8077,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-34.89</v>
+        <v>-37.84</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6477,7 +8097,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-34.28</v>
+        <v>-37.23</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6497,7 +8117,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.68</v>
+        <v>-36.63</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6517,7 +8137,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-33.08</v>
+        <v>-36.03</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6537,7 +8157,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-32.48</v>
+        <v>-35.43</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6557,7 +8177,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-31.88</v>
+        <v>-34.83</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6577,7 +8197,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-31.28</v>
+        <v>-34.23</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6597,7 +8217,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-30.68</v>
+        <v>-33.63</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6617,7 +8237,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.07</v>
+        <v>-33.03</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6637,7 +8257,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-29.47</v>
+        <v>-32.42</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6657,7 +8277,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-28.87</v>
+        <v>-31.82</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6677,7 +8297,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-28.27</v>
+        <v>-31.22</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6697,7 +8317,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.67</v>
+        <v>-30.62</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6717,7 +8337,7 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.07</v>
+        <v>-30.02</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -6737,7 +8357,7 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-26.47</v>
+        <v>-29.42</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -6757,7 +8377,7 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-25.87</v>
+        <v>-28.82</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -6777,7 +8397,7 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-25.27</v>
+        <v>-28.22</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -6797,7 +8417,7 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-24.67</v>
+        <v>-27.62</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -6817,7 +8437,7 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-24.07</v>
+        <v>-27.02</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -6837,7 +8457,7 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.47</v>
+        <v>-26.42</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -6857,7 +8477,7 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.87</v>
+        <v>-25.82</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -6877,10 +8497,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.27</v>
+        <v>-25.22</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6897,10 +8517,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-21.67</v>
+        <v>-24.65</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6917,10 +8537,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-21.07</v>
+        <v>-24.12</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6937,10 +8557,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-20.47</v>
+        <v>-23.6</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6957,10 +8577,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-19.87</v>
+        <v>-23.12</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6977,10 +8597,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.27</v>
+        <v>-22.65</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6997,10 +8617,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-18.67</v>
+        <v>-22.2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -7017,10 +8637,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-18.07</v>
+        <v>-21.8</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -7037,10 +8657,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-17.47</v>
+        <v>-21.45</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -7057,10 +8677,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-16.87</v>
+        <v>-21.14</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7077,10 +8697,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-16.27</v>
+        <v>-20.86</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7097,10 +8717,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-15.67</v>
+        <v>-20.61</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7117,10 +8737,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-15.07</v>
+        <v>-20.39</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7137,10 +8757,10 @@
         <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-14.47</v>
+        <v>-20.19</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E64" t="n">
         <v>1.57</v>
@@ -7157,10 +8777,10 @@
         <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.87</v>
+        <v>-20.01</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E65" t="n">
         <v>1.57</v>
@@ -7177,10 +8797,10 @@
         <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.27</v>
+        <v>-19.86</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E66" t="n">
         <v>1.57</v>
@@ -7194,16 +8814,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.67</v>
+        <v>-19.72</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E67" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7214,16 +8834,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.07</v>
+        <v>-19.6</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7234,16 +8854,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.47</v>
+        <v>-19.49</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E69" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7254,16 +8874,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.87</v>
+        <v>-19.39</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E70" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7274,16 +8894,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.28</v>
+        <v>-19.31</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E71" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7294,16 +8914,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.86</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.68</v>
+        <v>-19.23</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E72" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7314,16 +8934,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-9.09</v>
+        <v>-19.16</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E73" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7334,16 +8954,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.51</v>
+        <v>-19.1</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7354,16 +8974,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.44</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.93</v>
+        <v>-19.05</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E75" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7374,16 +8994,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.36</v>
+        <v>-19</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E76" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7394,16 +9014,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.04</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.8</v>
+        <v>-18.96</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E77" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7414,16 +9034,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.25</v>
+        <v>-18.92</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7434,16 +9054,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.54</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.71</v>
+        <v>-18.89</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E79" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7454,16 +9074,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.26</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.18</v>
+        <v>-18.86</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E80" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7474,16 +9094,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.67</v>
+        <v>-18.83</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E81" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7494,16 +9114,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.16</v>
+        <v>-18.81</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E82" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7514,16 +9134,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.73</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-3.68</v>
+        <v>-18.79</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E83" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7534,16 +9154,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.21</v>
+        <v>-18.77</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E84" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7554,16 +9174,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.49</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.75</v>
+        <v>-18.75</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7574,16 +9194,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.91</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.32</v>
+        <v>-18.74</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E86" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7594,16 +9214,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.34</v>
+        <v>-2</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.9</v>
+        <v>-18.72</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E87" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7614,16 +9234,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.79</v>
+        <v>-2</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.51</v>
+        <v>-18.71</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E88" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -7634,18 +9254,558 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.26</v>
+        <v>-2</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.13</v>
+        <v>-18.7</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-18.69</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-18.68</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-18.68</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-18.67</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-18.66</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-18.66</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-18.66</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-18.65</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-18.65</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-18.65</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-18.65</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-18.53</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-18.44</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
